--- a/data/IN/outputs/house_seat_matrix.xlsx
+++ b/data/IN/outputs/house_seat_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
       <selection activeCell="CX1" sqref="CX1:CX101"/>
     </sheetView>
   </sheetViews>
